--- a/dat/data.xlsx
+++ b/dat/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="604">
   <si>
     <t xml:space="preserve">ATK</t>
   </si>
@@ -824,6 +824,44 @@
     <t xml:space="preserve">債「拳」弁砕</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">債「拳」弁砕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ガード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">押印、決裁</t>
   </si>
   <si>
@@ -1034,6 +1072,254 @@
   </si>
   <si>
     <t xml:space="preserve">発破作業中立入禁止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月下遊猟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">月下遊猟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">チャージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">清潔を保つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">礼儀の躾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群狼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">復讐の反攻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狩人の刻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">狩人の刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">チャージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">人狼の刻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">人狼の刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">チャージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">御意に</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使命を果たす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋭牙剪定法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">急凍剪定法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荒波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寒潮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄氷の急襲</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">薄氷の急襲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">チャージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">暗礁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">護衛シャーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巡洋シャーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾びれビンタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一掃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シャーク・トルネード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪崩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">終わりなき冬の狂宴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アホを痛めつけろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マヌケを追い払え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いきなりビックリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボンプ回生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二拍子のアルマンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四拍子のガヴォット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おバカをぶっ叩け</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おバカ消失魔法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侍者の心得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女王の侍従たち</t>
   </si>
   <si>
     <t xml:space="preserve">class</t>
@@ -7713,11 +7999,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="95878783"/>
-        <c:axId val="59554129"/>
+        <c:axId val="67523331"/>
+        <c:axId val="60784846"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95878783"/>
+        <c:axId val="67523331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7749,7 +8035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59554129"/>
+        <c:crossAx val="60784846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7757,7 +8043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59554129"/>
+        <c:axId val="60784846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7798,7 +8084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95878783"/>
+        <c:crossAx val="67523331"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15106,10 +15392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK117"/>
+  <dimension ref="A1:AK154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19599,38 +19885,6 @@
         <f aca="false">478.4-O93</f>
         <v>39.9</v>
       </c>
-      <c r="R93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T93" s="0" t="n">
-        <v>500.5</v>
-      </c>
-      <c r="U93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V93" s="0" t="n">
-        <f aca="false">546-T93</f>
-        <v>45.5</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y93" s="0" t="n">
-        <v>552.2</v>
-      </c>
-      <c r="Z93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA93" s="0" t="n">
-        <f aca="false">601.4-Y93</f>
-        <v>49.1999999999999</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -19641,10 +19895,10 @@
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>230</v>
@@ -19659,14 +19913,30 @@
         <v>59</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>627.3</v>
+        <v>500.5</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L94" s="0" t="n">
-        <f aca="false">684.4-J94</f>
-        <v>57.1</v>
+        <f aca="false">546-J94</f>
+        <v>45.5</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>552.2</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <f aca="false">601.4-O94</f>
+        <v>49.1999999999999</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19681,7 +19951,7 @@
         <v>144</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>231</v>
@@ -19696,14 +19966,14 @@
         <v>59</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>1643</v>
+        <v>627.3</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L95" s="0" t="n">
-        <f aca="false">1792.4-J95</f>
-        <v>149.4</v>
+        <f aca="false">684.4-J95</f>
+        <v>57.1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19712,83 +19982,35 @@
         <v>93</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>232</v>
       </c>
       <c r="G96" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>63.6</v>
+        <v>1643</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L96" s="0" t="n">
-        <f aca="false">69.4-J96</f>
-        <v>5.8</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O96" s="0" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="P96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="0" t="n">
-        <f aca="false">86.4-O96</f>
-        <v>7.2</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T96" s="0" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="U96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V96" s="0" t="n">
-        <f aca="false">137.6-T96</f>
-        <v>11.5</v>
-      </c>
-      <c r="W96" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y96" s="0" t="n">
-        <v>317.4</v>
-      </c>
-      <c r="Z96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA96" s="0" t="n">
-        <f aca="false">346.3-Y96</f>
-        <v>28.9</v>
+        <f aca="false">1792.4-J96</f>
+        <v>149.4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19803,7 +20025,7 @@
         <v>123</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>233</v>
@@ -19847,33 +20069,33 @@
         <v>129</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T97" s="0" t="n">
-        <v>160.8</v>
+        <v>126.1</v>
       </c>
       <c r="U97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
-        <f aca="false">175.5-T97</f>
-        <v>14.7</v>
+        <f aca="false">137.6-T97</f>
+        <v>11.5</v>
       </c>
       <c r="W97" s="1" t="s">
         <v>129</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Y97" s="0" t="n">
-        <v>404.8</v>
+        <v>317.4</v>
       </c>
       <c r="Z97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA97" s="0" t="n">
-        <f aca="false">441.8-Y97</f>
-        <v>37</v>
+        <f aca="false">346.3-Y97</f>
+        <v>28.9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19951,14 +20173,14 @@
         <v>59</v>
       </c>
       <c r="Y98" s="0" t="n">
-        <v>501.3</v>
+        <v>404.8</v>
       </c>
       <c r="Z98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA98" s="0" t="n">
-        <f aca="false">546.9-Y98</f>
-        <v>45.6</v>
+        <f aca="false">441.8-Y98</f>
+        <v>37</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19970,16 +20192,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>235</v>
       </c>
       <c r="G99" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>129</v>
@@ -19988,14 +20210,62 @@
         <v>52</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>56.1</v>
+        <v>63.6</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L99" s="0" t="n">
-        <f aca="false">61.2-J99</f>
-        <v>5.1</v>
+        <f aca="false">69.4-J99</f>
+        <v>5.8</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <f aca="false">86.4-O99</f>
+        <v>7.2</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <f aca="false">175.5-T99</f>
+        <v>14.7</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y99" s="0" t="n">
+        <v>501.3</v>
+      </c>
+      <c r="Z99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="0" t="n">
+        <f aca="false">546.9-Y99</f>
+        <v>45.6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20010,7 +20280,7 @@
         <v>130</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>236</v>
@@ -20022,17 +20292,17 @@
         <v>129</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>343.9</v>
+        <v>56.1</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L100" s="0" t="n">
-        <f aca="false">375.2-J100</f>
-        <v>31.3</v>
+        <f aca="false">61.2-J100</f>
+        <v>5.1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20044,10 +20314,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>237</v>
@@ -20062,14 +20332,14 @@
         <v>59</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>183.8</v>
+        <v>343.9</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L101" s="0" t="n">
-        <f aca="false">200.6-J101</f>
-        <v>16.8</v>
+        <f aca="false">375.2-J101</f>
+        <v>31.3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20084,7 +20354,7 @@
         <v>135</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>238</v>
@@ -20099,14 +20369,14 @@
         <v>59</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>359.2</v>
+        <v>183.8</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L102" s="0" t="n">
-        <f aca="false">391.9-J102</f>
-        <v>32.7</v>
+        <f aca="false">200.6-J102</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20118,10 +20388,10 @@
         <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>239</v>
@@ -20136,46 +20406,14 @@
         <v>59</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>51.9</v>
+        <v>359.2</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L103" s="0" t="n">
-        <f aca="false">56.7-J103</f>
-        <v>4.8</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O103" s="0" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="P103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="0" t="n">
-        <f aca="false">84.9-O103</f>
-        <v>7.10000000000001</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T103" s="0" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="U103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V103" s="0" t="n">
-        <f aca="false">93.3-T103</f>
-        <v>7.8</v>
+        <f aca="false">391.9-J103</f>
+        <v>32.7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20190,7 +20428,7 @@
         <v>140</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>240</v>
@@ -20205,14 +20443,14 @@
         <v>59</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>152.3</v>
+        <v>51.9</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L104" s="0" t="n">
-        <f aca="false">166.2-J104</f>
-        <v>13.9</v>
+        <f aca="false">56.7-J104</f>
+        <v>4.8</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>129</v>
@@ -20221,14 +20459,14 @@
         <v>59</v>
       </c>
       <c r="O104" s="0" t="n">
-        <v>606</v>
+        <v>77.8</v>
       </c>
       <c r="P104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q104" s="0" t="n">
-        <f aca="false">661.1-O104</f>
-        <v>55.1</v>
+        <f aca="false">84.9-O104</f>
+        <v>7.10000000000001</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>129</v>
@@ -20237,14 +20475,14 @@
         <v>59</v>
       </c>
       <c r="T104" s="0" t="n">
-        <v>666.6</v>
+        <v>85.5</v>
       </c>
       <c r="U104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
-        <f aca="false">727.2-T104</f>
-        <v>60.6</v>
+        <f aca="false">93.3-T104</f>
+        <v>7.8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20256,10 +20494,10 @@
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>241</v>
@@ -20274,14 +20512,46 @@
         <v>59</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>636</v>
+        <v>152.3</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L105" s="0" t="n">
-        <f aca="false">693.9-J105</f>
-        <v>57.9</v>
+        <f aca="false">166.2-J105</f>
+        <v>13.9</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <f aca="false">661.1-O105</f>
+        <v>55.1</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>666.6</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <f aca="false">727.2-T105</f>
+        <v>60.6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20296,7 +20566,7 @@
         <v>144</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>242</v>
@@ -20311,14 +20581,14 @@
         <v>59</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>1548.8</v>
+        <v>636</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L106" s="0" t="n">
-        <f aca="false">1689.6-J106</f>
-        <v>140.8</v>
+        <f aca="false">693.9-J106</f>
+        <v>57.9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20348,14 +20618,14 @@
         <v>59</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>1694</v>
+        <v>1548.8</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L107" s="0" t="n">
-        <f aca="false">1848-J107</f>
-        <v>154</v>
+        <f aca="false">1689.6-J107</f>
+        <v>140.8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20364,83 +20634,35 @@
         <v>105</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>244</v>
       </c>
       <c r="G108" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>55.1</v>
+        <v>1694</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L108" s="0" t="n">
-        <f aca="false">60.2-J108</f>
-        <v>5.1</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O108" s="0" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="P108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="0" t="n">
-        <f aca="false">65.2-O108</f>
-        <v>5.5</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T108" s="0" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="U108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V108" s="0" t="n">
-        <f aca="false">136.2-T108</f>
-        <v>11.4</v>
-      </c>
-      <c r="W108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X108" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y108" s="0" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="Z108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA108" s="0" t="n">
-        <f aca="false">203.3-Y108</f>
-        <v>17</v>
+        <f aca="false">1848-J108</f>
+        <v>154</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20455,29 +20677,77 @@
         <v>123</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>245</v>
       </c>
       <c r="G109" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">60.2-J109</f>
+        <v>5.1</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <f aca="false">65.2-O109</f>
+        <v>5.5</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S109" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J109" s="0" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <f aca="false">44-J109</f>
-        <v>3.7</v>
+      <c r="T109" s="0" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <f aca="false">136.2-T109</f>
+        <v>11.4</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y109" s="0" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="Z109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="0" t="n">
+        <f aca="false">203.3-Y109</f>
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20489,10 +20759,10 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>246</v>
@@ -20504,17 +20774,17 @@
         <v>149</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>33.3</v>
+        <v>40.3</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L110" s="0" t="n">
-        <f aca="false">36.4-J110</f>
-        <v>3.1</v>
+        <f aca="false">44-J110</f>
+        <v>3.7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20529,7 +20799,7 @@
         <v>130</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>247</v>
@@ -20541,17 +20811,17 @@
         <v>149</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>164.2</v>
+        <v>33.3</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L111" s="0" t="n">
-        <f aca="false">179.2-J111</f>
-        <v>15</v>
+        <f aca="false">36.4-J111</f>
+        <v>3.1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20563,10 +20833,10 @@
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>248</v>
@@ -20575,20 +20845,20 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>45.5</v>
+        <v>164.2</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L112" s="0" t="n">
-        <f aca="false">49.7-J112</f>
-        <v>4.2</v>
+        <f aca="false">179.2-J112</f>
+        <v>15</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20603,7 +20873,7 @@
         <v>135</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>249</v>
@@ -20612,20 +20882,20 @@
         <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>359.3</v>
+        <v>45.5</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L113" s="0" t="n">
-        <f aca="false">392-J113</f>
-        <v>32.7</v>
+        <f aca="false">49.7-J113</f>
+        <v>4.2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20637,10 +20907,10 @@
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>250</v>
@@ -20649,20 +20919,20 @@
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>42.1</v>
+        <v>359.3</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L114" s="0" t="n">
-        <f aca="false">46-J114</f>
-        <v>3.9</v>
+        <f aca="false">392-J114</f>
+        <v>32.7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20677,7 +20947,7 @@
         <v>140</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>251</v>
@@ -20692,14 +20962,14 @@
         <v>49</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>166.9</v>
+        <v>42.1</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115" s="0" t="n">
-        <f aca="false">182.1-J115</f>
-        <v>15.2</v>
+        <f aca="false">46-J115</f>
+        <v>3.9</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20711,10 +20981,10 @@
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>252</v>
@@ -20729,14 +20999,14 @@
         <v>49</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>571.3</v>
+        <v>166.9</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116" s="0" t="n">
-        <f aca="false">623.3-J116</f>
-        <v>52</v>
+        <f aca="false">182.1-J116</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20751,7 +21021,7 @@
         <v>144</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>253</v>
@@ -20766,14 +21036,1671 @@
         <v>49</v>
       </c>
       <c r="J117" s="0" t="n">
+        <v>571.3</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <f aca="false">623.3-J117</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <f aca="false">ROW(A118)-3</f>
+        <v>115</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="G118" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J118" s="0" t="n">
         <v>1478.8</v>
       </c>
-      <c r="K117" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L117" s="0" t="n">
-        <f aca="false">1613.3-J117</f>
+      <c r="K118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <f aca="false">1613.3-J118</f>
         <v>134.5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <f aca="false">ROW(A119)-3</f>
+        <v>116</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <f aca="false">31.9-J119</f>
+        <v>2.7</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <f aca="false">40.5-O119</f>
+        <v>3.4</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <f aca="false">63.8-T119</f>
+        <v>5.4</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="Z119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="0" t="n">
+        <f aca="false">165.9-Y119</f>
+        <v>13.9</v>
+      </c>
+      <c r="AB119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD119" s="0" t="n">
+        <v>180.7</v>
+      </c>
+      <c r="AE119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF119" s="0" t="n">
+        <f aca="false">197.2-AD119</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <f aca="false">ROW(A120)-3</f>
+        <v>117</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G120" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <f aca="false">40.5-J120</f>
+        <v>3.4</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <f aca="false">61.6-O120</f>
+        <v>5.2</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <f aca="false">108.6-T120</f>
+        <v>9.09999999999999</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y120" s="0" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="Z120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="0" t="n">
+        <f aca="false">230.1-Y120</f>
+        <v>19.2</v>
+      </c>
+      <c r="AB120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD120" s="0" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="AE120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="0" t="n">
+        <f aca="false">302.9-AD120</f>
+        <v>25.3</v>
+      </c>
+      <c r="AG120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI120" s="0" t="n">
+        <v>355.7</v>
+      </c>
+      <c r="AJ120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="0" t="n">
+        <f aca="false">388.1-AI120</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <f aca="false">ROW(A121)-3</f>
+        <v>118</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G121" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <f aca="false">51.6-J121</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <f aca="false">ROW(A122)-3</f>
+        <v>119</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <f aca="false">204-J122</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <f aca="false">ROW(A123)-3</f>
+        <v>120</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="G123" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <f aca="false">68.9-J123</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <f aca="false">ROW(A124)-3</f>
+        <v>121</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G124" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <f aca="false">314.6-J124</f>
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <f aca="false">ROW(A125)-3</f>
+        <v>122</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="G125" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <f aca="false">84.2-J125</f>
+        <v>7.10000000000001</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <f aca="false">ROW(A126)-3</f>
+        <v>123</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G126" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <f aca="false">145.3-J126</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <f aca="false">ROW(A127)-3</f>
+        <v>124</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G127" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>534.3</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <f aca="false">583-J127</f>
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <f aca="false">ROW(A128)-3</f>
+        <v>125</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G128" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>789.5</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <f aca="false">861.4-J128</f>
+        <v>71.9</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <f aca="false">ROW(A129)-3</f>
+        <v>126</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="G129" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>637.8</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <f aca="false">695.8-J129</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <f aca="false">ROW(A130)-3</f>
+        <v>127</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G130" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>1694.1</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <f aca="false">1848.2-J130</f>
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <f aca="false">ROW(A131)-3</f>
+        <v>128</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="G131" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <f aca="false">53.3-J131</f>
+        <v>4.5</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <f aca="false">121.2-O131</f>
+        <v>10.1</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <f aca="false">324.4-T131</f>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <f aca="false">ROW(A132)-3</f>
+        <v>129</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G132" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <f aca="false">108.7-J132</f>
+        <v>9.10000000000001</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="0" t="n">
+        <f aca="false">200.7-O132</f>
+        <v>16.7</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>496.2</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <f aca="false">541.4-T132</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <f aca="false">ROW(A133)-3</f>
+        <v>130</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <f aca="false">84-J133</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <f aca="false">ROW(A134)-3</f>
+        <v>131</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G134" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <f aca="false">159-J134</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <f aca="false">ROW(A135)-3</f>
+        <v>132</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="G135" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <f aca="false">68-J135</f>
+        <v>5.7</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="0" t="n">
+        <f aca="false">139.2-O135</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <f aca="false">ROW(A136)-3</f>
+        <v>133</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G136" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <f aca="false">68-J136</f>
+        <v>5.7</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="0" t="n">
+        <f aca="false">172.6-O136</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <f aca="false">ROW(A137)-3</f>
+        <v>134</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G137" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <f aca="false">166.5-J137</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <f aca="false">ROW(A138)-3</f>
+        <v>135</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <f aca="false">132.2-J138</f>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <f aca="false">ROW(A139)-3</f>
+        <v>136</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="G139" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <f aca="false">477.8-J139</f>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <f aca="false">ROW(A140)-3</f>
+        <v>137</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G140" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <f aca="false">55.1-J140</f>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <f aca="false">ROW(A141)-3</f>
+        <v>138</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <f aca="false">411.5-J141</f>
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <f aca="false">ROW(A142)-3</f>
+        <v>139</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G142" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>553.3</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <f aca="false">603.6-J142</f>
+        <v>50.3000000000001</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <f aca="false">ROW(A143)-3</f>
+        <v>140</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="G143" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>794.6</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <f aca="false">866.9-J143</f>
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <f aca="false">ROW(A144)-3</f>
+        <v>141</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="G144" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>1890.8</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <f aca="false">2062.7-J144</f>
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <f aca="false">ROW(A145)-3</f>
+        <v>142</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="G145" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <f aca="false">48-J145</f>
+        <v>4</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O145" s="0" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="0" t="n">
+        <f aca="false">121.6-O145</f>
+        <v>10.2</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <f aca="false">127.8-T145</f>
+        <v>10.7</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="Z145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="0" t="n">
+        <f aca="false">200.7-Y145</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <f aca="false">ROW(A146)-3</f>
+        <v>143</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G146" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>315.1</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <f aca="false">343.8-J146</f>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <f aca="false">ROW(A147)-3</f>
+        <v>144</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G147" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <f aca="false">114.6-J147</f>
+        <v>9.59999999999999</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <f aca="false">ROW(A148)-3</f>
+        <v>145</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G148" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <f aca="false">248.3-J148</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <f aca="false">ROW(A149)-3</f>
+        <v>146</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G149" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <f aca="false">133.8-J149</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <f aca="false">ROW(A150)-3</f>
+        <v>147</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="G150" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>349.4</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <f aca="false">381.2-J150</f>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <f aca="false">ROW(A151)-3</f>
+        <v>148</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G151" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <f aca="false">66.9-J151</f>
+        <v>5.60000000000001</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <f aca="false">ROW(A152)-3</f>
+        <v>149</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G152" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <f aca="false">595.7-J152</f>
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <f aca="false">ROW(A153)-3</f>
+        <v>150</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G153" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>1013</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <f aca="false">1105.1-J153</f>
+        <v>92.0999999999999</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <f aca="false">ROW(A154)-3</f>
+        <v>151</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G154" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>2116.7</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <f aca="false">2309.2-J154</f>
+        <v>192.5</v>
       </c>
     </row>
   </sheetData>
@@ -20828,73 +22755,73 @@
         <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20909,10 +22836,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>42</v>
@@ -20921,13 +22848,13 @@
         <v>624</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>15</v>
@@ -20945,7 +22872,7 @@
         <v>24</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20957,13 +22884,13 @@
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>32</v>
@@ -20972,13 +22899,13 @@
         <v>475</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20990,13 +22917,13 @@
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>32</v>
@@ -21005,13 +22932,13 @@
         <v>475</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21023,13 +22950,13 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>32</v>
@@ -21038,13 +22965,13 @@
         <v>475</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21056,13 +22983,13 @@
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>32</v>
@@ -21071,13 +22998,13 @@
         <v>475</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21089,13 +23016,13 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>32</v>
@@ -21104,13 +23031,13 @@
         <v>475</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>40</v>
       </c>
       <c r="X7" s="13" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21122,13 +23049,13 @@
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>32</v>
@@ -21137,13 +23064,13 @@
         <v>475</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21155,13 +23082,13 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>32</v>
@@ -21170,13 +23097,13 @@
         <v>475</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21188,13 +23115,13 @@
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>32</v>
@@ -21203,13 +23130,13 @@
         <v>475</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>12</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21221,13 +23148,13 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>32</v>
@@ -21236,13 +23163,13 @@
         <v>475</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>40</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,13 +23181,13 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>32</v>
@@ -21269,13 +23196,13 @@
         <v>475</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21287,13 +23214,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>32</v>
@@ -21302,13 +23229,13 @@
         <v>475</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>68</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21320,13 +23247,13 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>32</v>
@@ -21341,7 +23268,7 @@
         <v>16</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21353,13 +23280,13 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>32</v>
@@ -21368,13 +23295,13 @@
         <v>475</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>32</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21386,13 +23313,13 @@
         <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>32</v>
@@ -21401,13 +23328,13 @@
         <v>475</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>32</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21422,10 +23349,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>40</v>
@@ -21434,13 +23361,13 @@
         <v>594</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21455,10 +23382,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>40</v>
@@ -21473,7 +23400,7 @@
         <v>20</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21488,10 +23415,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>40</v>
@@ -21500,13 +23427,13 @@
         <v>594</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>75</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21521,10 +23448,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>40</v>
@@ -21533,13 +23460,13 @@
         <v>594</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21554,10 +23481,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>40</v>
@@ -21566,13 +23493,13 @@
         <v>594</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21587,10 +23514,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>40</v>
@@ -21599,13 +23526,13 @@
         <v>594</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>15</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21620,10 +23547,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>40</v>
@@ -21632,13 +23559,13 @@
         <v>594</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>8</v>
@@ -21656,7 +23583,7 @@
         <v>12.5</v>
       </c>
       <c r="X23" s="14" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21671,10 +23598,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>40</v>
@@ -21683,13 +23610,13 @@
         <v>594</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21704,10 +23631,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>40</v>
@@ -21716,13 +23643,13 @@
         <v>594</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>75</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21737,10 +23664,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>40</v>
@@ -21749,13 +23676,13 @@
         <v>594</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>8</v>
@@ -21773,7 +23700,7 @@
         <v>12.8</v>
       </c>
       <c r="X26" s="14" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21788,10 +23715,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>40</v>
@@ -21800,13 +23727,13 @@
         <v>594</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21821,10 +23748,10 @@
         <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>42</v>
@@ -21833,13 +23760,13 @@
         <v>624</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21854,10 +23781,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>42</v>
@@ -21866,13 +23793,13 @@
         <v>624</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21887,10 +23814,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>42</v>
@@ -21899,13 +23826,13 @@
         <v>624</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21920,10 +23847,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>42</v>
@@ -21932,13 +23859,13 @@
         <v>624</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21953,10 +23880,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>42</v>
@@ -21965,13 +23892,13 @@
         <v>624</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>40</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21986,10 +23913,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>42</v>
@@ -21998,13 +23925,13 @@
         <v>624</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>15</v>
@@ -22022,7 +23949,7 @@
         <v>24</v>
       </c>
       <c r="X33" s="13" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22037,10 +23964,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>40</v>
@@ -22049,13 +23976,13 @@
         <v>594</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>7.5</v>
@@ -22073,7 +24000,7 @@
         <v>12</v>
       </c>
       <c r="X34" s="13" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22088,10 +24015,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>40</v>
@@ -22100,13 +24027,13 @@
         <v>594</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22121,10 +24048,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>40</v>
@@ -22133,13 +24060,13 @@
         <v>594</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>15</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22154,10 +24081,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>46</v>
@@ -22166,13 +24093,13 @@
         <v>684</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>20</v>
@@ -22190,7 +24117,7 @@
         <v>40</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22205,10 +24132,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>46</v>
@@ -22217,13 +24144,13 @@
         <v>684</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>30</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22238,10 +24165,10 @@
         <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>46</v>
@@ -22250,13 +24177,13 @@
         <v>684</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>18</v>
       </c>
       <c r="X39" s="13" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22271,10 +24198,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>46</v>
@@ -22283,13 +24210,13 @@
         <v>684</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>18</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22304,10 +24231,10 @@
         <v>57</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>46</v>
@@ -22322,7 +24249,7 @@
         <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>12</v>
@@ -22340,7 +24267,7 @@
         <v>24</v>
       </c>
       <c r="X41" s="13" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22355,10 +24282,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>48</v>
@@ -22367,13 +24294,13 @@
         <v>713</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>25</v>
@@ -22391,7 +24318,7 @@
         <v>50</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22406,10 +24333,10 @@
         <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>46</v>
@@ -22424,7 +24351,7 @@
         <v>24</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22439,10 +24366,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>48</v>
@@ -22451,13 +24378,13 @@
         <v>713</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>15</v>
@@ -22475,7 +24402,7 @@
         <v>30</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22490,10 +24417,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>42</v>
@@ -22502,13 +24429,13 @@
         <v>624</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>50</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22523,10 +24450,10 @@
         <v>48</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>42</v>
@@ -22535,13 +24462,13 @@
         <v>624</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22556,10 +24483,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>40</v>
@@ -22568,13 +24495,13 @@
         <v>594</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>6</v>
@@ -22598,7 +24525,7 @@
         <v>142</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>15</v>
@@ -22616,7 +24543,7 @@
         <v>24</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22631,10 +24558,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>48</v>
@@ -22643,13 +24570,13 @@
         <v>713</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>18</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22664,10 +24591,10 @@
         <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>48</v>
@@ -22676,13 +24603,13 @@
         <v>713</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>90</v>
       </c>
       <c r="X49" s="13" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22697,10 +24624,10 @@
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>42</v>
@@ -22709,13 +24636,13 @@
         <v>624</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>25</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22730,10 +24657,10 @@
         <v>57</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>48</v>
@@ -22742,13 +24669,13 @@
         <v>713</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>18</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22763,10 +24690,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>48</v>
@@ -22775,13 +24702,13 @@
         <v>713</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>30</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22796,10 +24723,10 @@
         <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>48</v>
@@ -22808,13 +24735,13 @@
         <v>713</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>30</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22829,10 +24756,10 @@
         <v>57</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>48</v>
@@ -22841,13 +24768,13 @@
         <v>713</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>18</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22862,10 +24789,10 @@
         <v>48</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>40</v>
@@ -22874,13 +24801,13 @@
         <v>594</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>20</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22895,10 +24822,10 @@
         <v>57</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>50</v>
@@ -22907,13 +24834,13 @@
         <v>743</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>50</v>
@@ -22931,7 +24858,7 @@
         <v>80</v>
       </c>
       <c r="X56" s="13" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22946,10 +24873,10 @@
         <v>57</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>48</v>
@@ -22958,13 +24885,13 @@
         <v>713</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>10</v>
@@ -22988,7 +24915,7 @@
         <v>131</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="S57" s="0" t="n">
         <v>40</v>
@@ -23006,7 +24933,7 @@
         <v>64</v>
       </c>
       <c r="X57" s="13" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23021,10 +24948,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>48</v>
@@ -23033,13 +24960,13 @@
         <v>713</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>30</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23054,10 +24981,10 @@
         <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>48</v>
@@ -23066,13 +24993,13 @@
         <v>713</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>24</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>50</v>
@@ -23090,7 +25017,7 @@
         <v>80</v>
       </c>
       <c r="X59" s="13" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23105,10 +25032,10 @@
         <v>57</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>48</v>
@@ -23117,13 +25044,13 @@
         <v>713</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>48</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>30</v>
@@ -23141,7 +25068,7 @@
         <v>48</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23156,10 +25083,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>42</v>
@@ -23168,13 +25095,13 @@
         <v>624</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>15</v>
       </c>
       <c r="X61" s="13" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -23233,13 +25160,13 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J1" s="15"/>
       <c r="L1" s="1" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23247,88 +25174,88 @@
         <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>16</v>
@@ -23340,13 +25267,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>20</v>
@@ -23361,19 +25288,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23382,10 +25309,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>71</v>
@@ -23394,7 +25321,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23403,19 +25330,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23424,19 +25351,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23445,19 +25372,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23466,19 +25393,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23487,19 +25414,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23508,19 +25435,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23529,19 +25456,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23550,19 +25477,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23571,19 +25498,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23592,19 +25519,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23613,37 +25540,37 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>15</v>
@@ -23655,22 +25582,22 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>15</v>
@@ -23682,10 +25609,10 @@
         <v>1</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23694,37 +25621,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>115</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>30</v>
@@ -23736,22 +25663,22 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="V17" s="0" t="n">
         <v>12</v>
@@ -23769,13 +25696,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>10</v>
@@ -23784,22 +25711,22 @@
         <v>135</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>8</v>
@@ -23817,37 +25744,37 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>45</v>
@@ -23859,22 +25786,22 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="V19" s="0" t="n">
         <v>25</v>
@@ -23892,10 +25819,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -23924,18 +25851,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -23946,7 +25873,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -23957,18 +25884,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -23976,7 +25903,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
@@ -23984,32 +25911,32 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24019,37 +25946,37 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -24079,7 +26006,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="C1" s="18" t="n">
         <v>1</v>
@@ -24264,7 +26191,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="19" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>1</v>
@@ -24449,7 +26376,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>1</v>
@@ -24693,7 +26620,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="B4" s="17" t="n">
         <v>50</v>
@@ -24941,7 +26868,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>45</v>
@@ -25434,19 +27361,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25468,31 +27395,31 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25501,7 +27428,7 @@
         <v>870.863742550656</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="C12" s="20" t="n">
         <f aca="false">C18</f>
@@ -25533,29 +27460,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="I15" s="8" t="n">
         <f aca="false">J15/(J15+K15)</f>
@@ -25572,45 +27499,45 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25654,13 +27581,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M20" s="0" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25682,19 +27609,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
